--- a/medicine/Psychotrope/Thé_sombre/Thé_sombre.xlsx
+++ b/medicine/Psychotrope/Thé_sombre/Thé_sombre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9_sombre</t>
+          <t>Thé_sombre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Un thé sombre est un thé post-fermenté ayant subi une période de vieillissement longue en milieu chaud et humide contrairement au thé jaune, également post-fermenté mais pour lequel la période de fermentation est courte.
 Sous l'influence de moisissures, de levures et de bactéries, il perdra progressivement son astringence et de son amertume pour s'enrichir de saveurs terreuses et de sous-bois.
-Les Chinois appellent littéralement « thé noir » ce type de thé, tandis qu'ils dénomment « thé rouge » ce qu'un Occidental appelle thé noir[1],[2],[3].
+Les Chinois appellent littéralement « thé noir » ce type de thé, tandis qu'ils dénomment « thé rouge » ce qu'un Occidental appelle thé noir.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9_sombre</t>
+          <t>Thé_sombre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Thés sombres les plus connus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les thés sombres proviennent le plus souvent des provinces de Sichuan, Yunnan ou Hubei.
 thé Pu-erh du Yunnan (雲南普洱茶, yúnnán pǔ'ěr chá)
